--- a/data/trans_dic/P19C11_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Estudios-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -818,7 +818,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P19C11_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Estudios-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.0392877213345935</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.04064122351087644</v>
+        <v>0.04064122351087645</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02868439254065914</v>
+        <v>0.02973331965885184</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02956745060970216</v>
+        <v>0.02944440687039119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0323400744820463</v>
+        <v>0.03306385714243011</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0605473753337635</v>
+        <v>0.06118257167839053</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05118487820243941</v>
+        <v>0.05226426760475356</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04953165584119412</v>
+        <v>0.05106090987475929</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.03915724016043923</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0405313934682822</v>
+        <v>0.04053139346828221</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03402976755678198</v>
+        <v>0.03317952810800166</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03239668248774081</v>
+        <v>0.03275056363579106</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03511489884122457</v>
+        <v>0.0354227098137939</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05117305021274401</v>
+        <v>0.0513384202797406</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0465363825504846</v>
+        <v>0.04697497030210944</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04642324267116388</v>
+        <v>0.04606290494671664</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.06050438235619656</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.05155087488228994</v>
+        <v>0.05155087488228993</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.05595677908873137</v>
+        <v>0.05595677908873135</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04413856455868186</v>
+        <v>0.0447845316634363</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03813333282660476</v>
+        <v>0.03915546648571074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04587764477363066</v>
+        <v>0.04606345495995467</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07998287504390404</v>
+        <v>0.08013876543834049</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06725088261416594</v>
+        <v>0.06588023212698696</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06849140344693168</v>
+        <v>0.06862468167440611</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.04585957929397646</v>
+        <v>0.04585957929397647</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04166594116224235</v>
+        <v>0.04166594116224234</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.0436927190065011</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03954087999365477</v>
+        <v>0.03927011673225412</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0367553338869963</v>
+        <v>0.03638951240390315</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03945627630655932</v>
+        <v>0.03963746990523078</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0532102874958405</v>
+        <v>0.05396655543066187</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04752685108561339</v>
+        <v>0.04685523750271456</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04827829110021428</v>
+        <v>0.0481303864624089</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15412</v>
+        <v>15975</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23198</v>
+        <v>23102</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>42749</v>
+        <v>43706</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32531</v>
+        <v>32872</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>40159</v>
+        <v>41006</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>65474</v>
+        <v>67496</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>73044</v>
+        <v>71219</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>68376</v>
+        <v>69123</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>149487</v>
+        <v>150797</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>109842</v>
+        <v>110197</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>98219</v>
+        <v>99145</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>197627</v>
+        <v>196093</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30978</v>
+        <v>31432</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>27624</v>
+        <v>28365</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>65433</v>
+        <v>65698</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>56135</v>
+        <v>56245</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>48717</v>
+        <v>47724</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>97686</v>
+        <v>97876</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>133870</v>
+        <v>132953</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>133039</v>
+        <v>131715</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>276399</v>
+        <v>277668</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>180149</v>
+        <v>182709</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>172028</v>
+        <v>169597</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>338199</v>
+        <v>337163</v>
       </c>
     </row>
     <row r="20">
